--- a/biology/Botanique/Aegilops_geniculata/Aegilops_geniculata.xlsx
+++ b/biology/Botanique/Aegilops_geniculata/Aegilops_geniculata.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Aegilops ovata · Égilope ovale
 Aegilops geniculata est une espèce végétale de la famille des graminées (Poaceae).
@@ -514,10 +526,13 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Appareil végétatif
-Cette graminée mesure entre 30 et 40 cm de hauteur[1]. Elle forme des touffes (plante cespiteuse).
-Appareil reproducteur
-La floraison a lieu entre mai et juillet[2]. Elle produit des épis d’épillets de couleur initialement verdâtre, qui mesurent généralement moins de 3 cm[1]. Les glumes portent de 3 à 5 barbes (4 en général) qui accrochent le doigt[1]. La pollinisation est entièrement réalisée par le vent (anémogamie). Après fécondation, les fruits se forment : ce sont des caryopses dont la couleur devient jaune à maturité.
+          <t>Appareil végétatif</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette graminée mesure entre 30 et 40 cm de hauteur. Elle forme des touffes (plante cespiteuse).
 </t>
         </is>
       </c>
@@ -543,13 +558,18 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Répartition et habitat</t>
+          <t>Description</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">L'aire de répartition native de cette espèce s'étend dans la partie sud de l'Eurasie, de l'Europe de l'Ouest à l'Irak, et sur tout le nord du continent africain. Cette graminée est une adventice, dans les deux sens du terme en Europe du Nord (Allemagne, Pays-Bas, Royaume-Uni) et sur les îles Canaries[3]. Elle a aussi envahi une partie de l'Amérique du Nord : elle est par exemple, aux États-Unis, déclarée indésirable dans l'état de Californie (où elle est présente) mais aussi dans celui de l'Oregon, à titre préventif[4].
-Cette espèce préfère les températures chaudes et les sols plutôt basiques[2]. 
+          <t>Appareil reproducteur</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La floraison a lieu entre mai et juillet. Elle produit des épis d’épillets de couleur initialement verdâtre, qui mesurent généralement moins de 3 cm. Les glumes portent de 3 à 5 barbes (4 en général) qui accrochent le doigt. La pollinisation est entièrement réalisée par le vent (anémogamie). Après fécondation, les fruits se forment : ce sont des caryopses dont la couleur devient jaune à maturité.
 </t>
         </is>
       </c>
@@ -575,10 +595,46 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>Répartition et habitat</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'aire de répartition native de cette espèce s'étend dans la partie sud de l'Eurasie, de l'Europe de l'Ouest à l'Irak, et sur tout le nord du continent africain. Cette graminée est une adventice, dans les deux sens du terme en Europe du Nord (Allemagne, Pays-Bas, Royaume-Uni) et sur les îles Canaries. Elle a aussi envahi une partie de l'Amérique du Nord : elle est par exemple, aux États-Unis, déclarée indésirable dans l'état de Californie (où elle est présente) mais aussi dans celui de l'Oregon, à titre préventif.
+Cette espèce préfère les températures chaudes et les sols plutôt basiques. 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Aegilops_geniculata</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Aegilops_geniculata</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>Nomenclature et systématique</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Synonymes : 
 Aegilops ovata L. : pour certains auteurs, il s'agit même du seul nom valide ;
